--- a/biology/Zoologie/Gonyosoma/Gonyosoma.xlsx
+++ b/biology/Zoologie/Gonyosoma/Gonyosoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonyosoma est un genre de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonyosoma est un genre de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les six espèces de ce genre se rencontrent en Asie du Sud, en Asie du Sud-Est et en Asie de l'Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les six espèces de ce genre se rencontrent en Asie du Sud, en Asie du Sud-Est et en Asie de l'Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 décembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 décembre 2015) :
 Gonyosoma boulengeri (Mocquard, 1897)
 Gonyosoma frenatum (Gray, 1853)
 Gonyosoma jansenii (Bleeker, 1859)
@@ -578,9 +594,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les genres Gonyophis[3], Rhynchophis[4] et Rhadinophis[5] ont été placés en synonymie avec Gonyosoma par Chen, McKelvy, Grismer, Matsui, Nishikawa et Burbrink en 2014[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres Gonyophis, Rhynchophis et Rhadinophis ont été placés en synonymie avec Gonyosoma par Chen, McKelvy, Grismer, Matsui, Nishikawa et Burbrink en 2014.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wagler, 1828 : Gonyosoma viride — Grüner Kantenbauch. Descriptiones et Icones Amphibiorum, J. G. Cotta, München.</t>
         </is>
